--- a/instance_generator/instances/instance_T1030/fragmentation/fragmentation_link1_request800.xlsx
+++ b/instance_generator/instances/instance_T1030/fragmentation/fragmentation_link1_request800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C513"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.856</v>
+        <v>4.568</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.584</v>
+        <v>5.808</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.88</v>
+        <v>4.656</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.432</v>
+        <v>10.688</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.904</v>
+        <v>4.752</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.328</v>
+        <v>13.176</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.936</v>
+        <v>4.824</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.744</v>
+        <v>19.328</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.968</v>
+        <v>19.92</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.968</v>
+        <v>29.904</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.04</v>
+        <v>2.12</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.52</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.72</v>
+        <v>0.48</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.36</v>
+        <v>0.28</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.248</v>
+        <v>0.048</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.472</v>
+        <v>0.024</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.152</v>
+        <v>0.256</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.912</v>
+        <v>0.144</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.504</v>
+        <v>0.192</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.656</v>
+        <v>0.008</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.536</v>
+        <v>0.048</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.056</v>
+        <v>0.056</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.344</v>
+        <v>0.016</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.128</v>
+        <v>0.016</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.888</v>
+        <v>0.024</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.184</v>
+        <v>0.016</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.536</v>
+        <v>0.008</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.304</v>
+        <v>1.416</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.632</v>
+        <v>18.536</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.048</v>
+        <v>1.864</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.968</v>
+        <v>1.008</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.84</v>
+        <v>1.792</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.008</v>
+        <v>3.36</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="36">
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.64</v>
+        <v>2.24</v>
       </c>
       <c r="C36" t="n">
         <v>31251</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.696</v>
+        <v>1.744</v>
       </c>
       <c r="C37" t="n">
         <v>31251</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.664</v>
+        <v>0.064</v>
       </c>
       <c r="C38" t="n">
         <v>31251</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.904</v>
+        <v>0.312</v>
       </c>
       <c r="C39" t="n">
         <v>31251</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.968</v>
+        <v>0.344</v>
       </c>
       <c r="C40" t="n">
         <v>31251</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19.512</v>
+        <v>0.6</v>
       </c>
       <c r="C41" t="n">
         <v>31251</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.944</v>
+        <v>0.576</v>
       </c>
       <c r="C42" t="n">
         <v>31251</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.92</v>
+        <v>0.352</v>
       </c>
       <c r="C43" t="n">
         <v>31251</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.92</v>
+        <v>0.232</v>
       </c>
       <c r="C44" t="n">
         <v>31251</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.184</v>
+        <v>0.16</v>
       </c>
       <c r="C45" t="n">
         <v>31251</v>
@@ -934,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.048</v>
+        <v>0.52</v>
       </c>
       <c r="C46" t="n">
         <v>31251</v>
@@ -945,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.904</v>
+        <v>0.312</v>
       </c>
       <c r="C47" t="n">
         <v>31251</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.336</v>
+        <v>0.056</v>
       </c>
       <c r="C48" t="n">
         <v>31251</v>
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.616</v>
+        <v>0.288</v>
       </c>
       <c r="C49" t="n">
         <v>31251</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.136</v>
+        <v>0.584</v>
       </c>
       <c r="C50" t="n">
         <v>31251</v>
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.672</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C51" t="n">
         <v>31251</v>
@@ -1000,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.12</v>
+        <v>0.392</v>
       </c>
       <c r="C52" t="n">
         <v>31251</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.936</v>
+        <v>2.968</v>
       </c>
       <c r="C53" t="n">
         <v>31251</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.048</v>
+        <v>3.968</v>
       </c>
       <c r="C54" t="n">
         <v>31251</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.472</v>
+        <v>4.216</v>
       </c>
       <c r="C55" t="n">
         <v>31251</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.136</v>
+        <v>3.968</v>
       </c>
       <c r="C56" t="n">
         <v>31251</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.496</v>
+        <v>4.824</v>
       </c>
       <c r="C57" t="n">
         <v>31251</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.624</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C58" t="n">
         <v>31251</v>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.336</v>
+        <v>7.984</v>
       </c>
       <c r="C59" t="n">
         <v>31251</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.976</v>
+        <v>9.272</v>
       </c>
       <c r="C60" t="n">
         <v>31251</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.568</v>
+        <v>9.096</v>
       </c>
       <c r="C61" t="n">
         <v>31251</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.12</v>
+        <v>4.92</v>
       </c>
       <c r="C62" t="n">
         <v>31251</v>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.272</v>
+        <v>7.672</v>
       </c>
       <c r="C63" t="n">
         <v>31251</v>
@@ -1132,10 +1132,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.312</v>
+        <v>3.48</v>
       </c>
       <c r="C64" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.648</v>
+        <v>3.448</v>
       </c>
       <c r="C65" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.736</v>
+        <v>4.152</v>
       </c>
       <c r="C66" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.64</v>
+        <v>4.048</v>
       </c>
       <c r="C67" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.936</v>
+        <v>1.728</v>
       </c>
       <c r="C68" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.68</v>
+        <v>4.224</v>
       </c>
       <c r="C69" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.32</v>
+        <v>0.92</v>
       </c>
       <c r="C70" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.752000000000001</v>
+        <v>3.208</v>
       </c>
       <c r="C71" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.688000000000001</v>
+        <v>3.152</v>
       </c>
       <c r="C72" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.712</v>
+        <v>2.4</v>
       </c>
       <c r="C73" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.496</v>
+        <v>2.32</v>
       </c>
       <c r="C74" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="75">
@@ -1253,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.488</v>
+        <v>1.464</v>
       </c>
       <c r="C75" t="n">
         <v>62501</v>
@@ -1264,7 +1264,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.728</v>
+        <v>1.568</v>
       </c>
       <c r="C76" t="n">
         <v>62501</v>
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.712</v>
+        <v>0.52</v>
       </c>
       <c r="C77" t="n">
         <v>62501</v>
@@ -1286,7 +1286,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.68</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>62501</v>
@@ -1297,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.896</v>
+        <v>0.776</v>
       </c>
       <c r="C79" t="n">
         <v>62501</v>
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.736</v>
+        <v>8.968</v>
       </c>
       <c r="C80" t="n">
         <v>62501</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.632</v>
+        <v>3.264</v>
       </c>
       <c r="C81" t="n">
         <v>62501</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.392</v>
+        <v>2.456</v>
       </c>
       <c r="C82" t="n">
         <v>62501</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.376</v>
+        <v>13.024</v>
       </c>
       <c r="C83" t="n">
         <v>62501</v>
@@ -1352,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.12</v>
+        <v>3.288</v>
       </c>
       <c r="C84" t="n">
         <v>62501</v>
@@ -1363,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.088</v>
+        <v>14.92</v>
       </c>
       <c r="C85" t="n">
         <v>62501</v>
@@ -1374,7 +1374,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.808</v>
+        <v>4.904</v>
       </c>
       <c r="C86" t="n">
         <v>62501</v>
@@ -1385,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.848</v>
+        <v>19.128</v>
       </c>
       <c r="C87" t="n">
         <v>62501</v>
@@ -1396,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.208</v>
+        <v>9.92</v>
       </c>
       <c r="C88" t="n">
         <v>62501</v>
@@ -1407,7 +1407,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.544</v>
+        <v>9.144</v>
       </c>
       <c r="C89" t="n">
         <v>62501</v>
@@ -1418,7 +1418,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.816</v>
+        <v>14.248</v>
       </c>
       <c r="C90" t="n">
         <v>62501</v>
@@ -1429,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.648</v>
+        <v>3.24</v>
       </c>
       <c r="C91" t="n">
         <v>62501</v>
@@ -1440,7 +1440,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.416</v>
+        <v>4.144</v>
       </c>
       <c r="C92" t="n">
         <v>62501</v>
@@ -1451,7 +1451,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.144</v>
+        <v>4.232</v>
       </c>
       <c r="C93" t="n">
         <v>62501</v>
@@ -1462,7 +1462,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.328</v>
+        <v>4.264</v>
       </c>
       <c r="C94" t="n">
         <v>62501</v>
@@ -1473,7 +1473,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.424</v>
+        <v>9.192</v>
       </c>
       <c r="C95" t="n">
         <v>62501</v>
@@ -1484,7 +1484,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.968</v>
+        <v>7.608</v>
       </c>
       <c r="C96" t="n">
         <v>62501</v>
@@ -1495,7 +1495,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.968</v>
+        <v>3.232</v>
       </c>
       <c r="C97" t="n">
         <v>62501</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19.704</v>
+        <v>4.192</v>
       </c>
       <c r="C98" t="n">
         <v>62501</v>
@@ -1517,7 +1517,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.968</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>62501</v>
@@ -1528,10 +1528,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.712</v>
+        <v>2.488</v>
       </c>
       <c r="C100" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.744</v>
+        <v>64.12</v>
       </c>
       <c r="C101" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.408</v>
+        <v>19.088</v>
       </c>
       <c r="C102" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.712</v>
+        <v>49.16</v>
       </c>
       <c r="C103" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.744</v>
+        <v>4.136</v>
       </c>
       <c r="C104" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.752</v>
+        <v>28.4</v>
       </c>
       <c r="C105" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.728</v>
+        <v>4.16</v>
       </c>
       <c r="C106" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.192</v>
+        <v>64.048</v>
       </c>
       <c r="C107" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.408</v>
+        <v>3.76</v>
       </c>
       <c r="C108" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.728</v>
+        <v>5.728</v>
       </c>
       <c r="C109" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.704000000000001</v>
+        <v>4.656</v>
       </c>
       <c r="C110" t="n">
-        <v>62501</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.152</v>
+        <v>10.688</v>
       </c>
       <c r="C111" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>64.70399999999999</v>
+        <v>4.752</v>
       </c>
       <c r="C112" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>19.696</v>
+        <v>13.088</v>
       </c>
       <c r="C113" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>49.72</v>
+        <v>4.824</v>
       </c>
       <c r="C114" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.712</v>
+        <v>18.528</v>
       </c>
       <c r="C115" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>29.456</v>
+        <v>19.92</v>
       </c>
       <c r="C116" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.72</v>
+        <v>39.904</v>
       </c>
       <c r="C117" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>64.68000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C118" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="119">
@@ -1737,7 +1737,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.584</v>
+        <v>18.024</v>
       </c>
       <c r="C119" t="n">
         <v>125001</v>
@@ -1748,7 +1748,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.552</v>
+        <v>18.232</v>
       </c>
       <c r="C120" t="n">
         <v>125001</v>
@@ -1759,7 +1759,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C121" t="n">
         <v>125001</v>
@@ -1770,7 +1770,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.432</v>
+        <v>19.48</v>
       </c>
       <c r="C122" t="n">
         <v>125001</v>
@@ -1781,7 +1781,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C123" t="n">
         <v>125001</v>
@@ -1792,10 +1792,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>14.296</v>
+        <v>19.728</v>
       </c>
       <c r="C124" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="125">
@@ -1803,10 +1803,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C125" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="126">
@@ -1814,10 +1814,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.472</v>
+        <v>19.384</v>
       </c>
       <c r="C126" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="127">
@@ -1825,10 +1825,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C127" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="128">
@@ -1836,10 +1836,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C128" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="129">
@@ -1847,10 +1847,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C129" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="130">
@@ -1858,10 +1858,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19.296</v>
+        <v>19.04</v>
       </c>
       <c r="C130" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="131">
@@ -1869,10 +1869,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>19.392</v>
+        <v>3.848</v>
       </c>
       <c r="C131" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="132">
@@ -1880,10 +1880,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C132" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="133">
@@ -1891,10 +1891,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>19.808</v>
+        <v>18.872</v>
       </c>
       <c r="C133" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="134">
@@ -1902,10 +1902,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C134" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="135">
@@ -1913,7 +1913,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C135" t="n">
         <v>156251</v>
@@ -1924,7 +1924,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C136" t="n">
         <v>156251</v>
@@ -1935,7 +1935,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C137" t="n">
         <v>156251</v>
@@ -1946,10 +1946,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C138" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C139" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C140" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>19.648</v>
+        <v>14.096</v>
       </c>
       <c r="C141" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C142" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C143" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C144" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C145" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C146" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C147" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C148" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="149">
@@ -2067,7 +2067,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>19.936</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="C149" t="n">
         <v>187501</v>
@@ -2078,7 +2078,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>14.912</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C150" t="n">
         <v>187501</v>
@@ -2089,7 +2089,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.976</v>
+        <v>314.904</v>
       </c>
       <c r="C151" t="n">
         <v>187501</v>
@@ -2100,10 +2100,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>14.68</v>
+        <v>4.568</v>
       </c>
       <c r="C152" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.968</v>
+        <v>5.808</v>
       </c>
       <c r="C153" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="154">
@@ -2122,10 +2122,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.776</v>
+        <v>4.656</v>
       </c>
       <c r="C154" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="155">
@@ -2133,10 +2133,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>14.976</v>
+        <v>10.688</v>
       </c>
       <c r="C155" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="156">
@@ -2144,10 +2144,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>19.84</v>
+        <v>4.752</v>
       </c>
       <c r="C156" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="157">
@@ -2155,10 +2155,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>19.936</v>
+        <v>13.176</v>
       </c>
       <c r="C157" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="158">
@@ -2166,10 +2166,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>19.872</v>
+        <v>4.824</v>
       </c>
       <c r="C158" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="159">
@@ -2177,10 +2177,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>19.936</v>
+        <v>19.328</v>
       </c>
       <c r="C159" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="160">
@@ -2188,10 +2188,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9.904</v>
+        <v>19.92</v>
       </c>
       <c r="C160" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="161">
@@ -2199,10 +2199,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9.976000000000001</v>
+        <v>39.904</v>
       </c>
       <c r="C161" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="162">
@@ -2210,10 +2210,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>314.968</v>
+        <v>19.832</v>
       </c>
       <c r="C162" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="163">
@@ -2221,7 +2221,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.856</v>
+        <v>18.784</v>
       </c>
       <c r="C163" t="n">
         <v>250001</v>
@@ -2232,7 +2232,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>11.584</v>
+        <v>18.144</v>
       </c>
       <c r="C164" t="n">
         <v>250001</v>
@@ -2243,7 +2243,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C165" t="n">
         <v>250001</v>
@@ -2254,7 +2254,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13.432</v>
+        <v>19.408</v>
       </c>
       <c r="C166" t="n">
         <v>250001</v>
@@ -2265,7 +2265,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C167" t="n">
         <v>250001</v>
@@ -2276,10 +2276,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>14.328</v>
+        <v>19.728</v>
       </c>
       <c r="C168" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="169">
@@ -2287,10 +2287,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C169" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="170">
@@ -2298,10 +2298,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>19.744</v>
+        <v>19.384</v>
       </c>
       <c r="C170" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="171">
@@ -2309,10 +2309,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C171" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="172">
@@ -2320,10 +2320,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C172" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="173">
@@ -2331,10 +2331,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C173" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="174">
@@ -2342,10 +2342,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>19.552</v>
+        <v>18.96</v>
       </c>
       <c r="C174" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="175">
@@ -2353,10 +2353,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>19.36</v>
+        <v>3.848</v>
       </c>
       <c r="C175" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="176">
@@ -2364,10 +2364,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C176" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="177">
@@ -2375,10 +2375,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>19.784</v>
+        <v>18.872</v>
       </c>
       <c r="C177" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="178">
@@ -2386,10 +2386,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C178" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="179">
@@ -2397,7 +2397,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C179" t="n">
         <v>281251</v>
@@ -2408,7 +2408,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C180" t="n">
         <v>281251</v>
@@ -2419,7 +2419,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C181" t="n">
         <v>281251</v>
@@ -2430,10 +2430,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C182" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="183">
@@ -2441,10 +2441,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C183" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="184">
@@ -2452,10 +2452,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C184" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="185">
@@ -2463,10 +2463,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>19.616</v>
+        <v>14.096</v>
       </c>
       <c r="C185" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="186">
@@ -2474,10 +2474,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C186" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="187">
@@ -2485,10 +2485,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C187" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="188">
@@ -2496,10 +2496,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C188" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="189">
@@ -2507,10 +2507,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C189" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="190">
@@ -2518,10 +2518,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C190" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="191">
@@ -2529,10 +2529,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C191" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="192">
@@ -2540,10 +2540,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C192" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="193">
@@ -2551,7 +2551,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>19.936</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="C193" t="n">
         <v>312501</v>
@@ -2562,7 +2562,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>14.912</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C194" t="n">
         <v>312501</v>
@@ -2573,7 +2573,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.976</v>
+        <v>314.904</v>
       </c>
       <c r="C195" t="n">
         <v>312501</v>
@@ -2584,10 +2584,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>14.68</v>
+        <v>4.568</v>
       </c>
       <c r="C196" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="197">
@@ -2595,10 +2595,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.968</v>
+        <v>5.808</v>
       </c>
       <c r="C197" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="198">
@@ -2606,10 +2606,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.776</v>
+        <v>4.656</v>
       </c>
       <c r="C198" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="199">
@@ -2617,10 +2617,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>14.976</v>
+        <v>10.688</v>
       </c>
       <c r="C199" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="200">
@@ -2628,10 +2628,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>19.84</v>
+        <v>4.752</v>
       </c>
       <c r="C200" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="201">
@@ -2639,10 +2639,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>19.936</v>
+        <v>13.176</v>
       </c>
       <c r="C201" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="202">
@@ -2650,10 +2650,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>19.872</v>
+        <v>4.824</v>
       </c>
       <c r="C202" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="203">
@@ -2661,10 +2661,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>19.936</v>
+        <v>19.328</v>
       </c>
       <c r="C203" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="204">
@@ -2672,10 +2672,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>9.904</v>
+        <v>19.92</v>
       </c>
       <c r="C204" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="205">
@@ -2683,10 +2683,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>9.976000000000001</v>
+        <v>39.904</v>
       </c>
       <c r="C205" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="206">
@@ -2694,10 +2694,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>314.968</v>
+        <v>19.832</v>
       </c>
       <c r="C206" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="207">
@@ -2705,7 +2705,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.856</v>
+        <v>18.784</v>
       </c>
       <c r="C207" t="n">
         <v>375001</v>
@@ -2716,7 +2716,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>11.584</v>
+        <v>18.144</v>
       </c>
       <c r="C208" t="n">
         <v>375001</v>
@@ -2727,7 +2727,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C209" t="n">
         <v>375001</v>
@@ -2738,7 +2738,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>13.432</v>
+        <v>19.408</v>
       </c>
       <c r="C210" t="n">
         <v>375001</v>
@@ -2749,7 +2749,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C211" t="n">
         <v>375001</v>
@@ -2760,10 +2760,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>14.328</v>
+        <v>19.728</v>
       </c>
       <c r="C212" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="213">
@@ -2771,10 +2771,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C213" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="214">
@@ -2782,10 +2782,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>19.744</v>
+        <v>19.384</v>
       </c>
       <c r="C214" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="215">
@@ -2793,10 +2793,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C215" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="216">
@@ -2804,10 +2804,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C216" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="217">
@@ -2815,10 +2815,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C217" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="218">
@@ -2826,10 +2826,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>19.552</v>
+        <v>18.96</v>
       </c>
       <c r="C218" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="219">
@@ -2837,10 +2837,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>19.36</v>
+        <v>3.848</v>
       </c>
       <c r="C219" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="220">
@@ -2848,10 +2848,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C220" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="221">
@@ -2859,10 +2859,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>19.784</v>
+        <v>18.872</v>
       </c>
       <c r="C221" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="222">
@@ -2870,10 +2870,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C222" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="223">
@@ -2881,7 +2881,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C223" t="n">
         <v>406251</v>
@@ -2892,7 +2892,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C224" t="n">
         <v>406251</v>
@@ -2903,7 +2903,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C225" t="n">
         <v>406251</v>
@@ -2914,10 +2914,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C226" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="227">
@@ -2925,10 +2925,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C227" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="228">
@@ -2936,10 +2936,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C228" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="229">
@@ -2947,10 +2947,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>19.616</v>
+        <v>14.096</v>
       </c>
       <c r="C229" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="230">
@@ -2958,10 +2958,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C230" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="231">
@@ -2969,10 +2969,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C231" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="232">
@@ -2980,10 +2980,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C232" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="233">
@@ -2991,10 +2991,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C233" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="234">
@@ -3002,10 +3002,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C234" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="235">
@@ -3013,10 +3013,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C235" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="236">
@@ -3024,10 +3024,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C236" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="237">
@@ -3035,7 +3035,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>19.936</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="C237" t="n">
         <v>437501</v>
@@ -3046,7 +3046,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>14.912</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C238" t="n">
         <v>437501</v>
@@ -3057,7 +3057,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4.976</v>
+        <v>314.904</v>
       </c>
       <c r="C239" t="n">
         <v>437501</v>
@@ -3068,10 +3068,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>14.68</v>
+        <v>4.568</v>
       </c>
       <c r="C240" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="241">
@@ -3079,10 +3079,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>4.968</v>
+        <v>5.808</v>
       </c>
       <c r="C241" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="242">
@@ -3090,10 +3090,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4.776</v>
+        <v>4.656</v>
       </c>
       <c r="C242" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="243">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>14.976</v>
+        <v>10.688</v>
       </c>
       <c r="C243" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="244">
@@ -3112,10 +3112,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>19.84</v>
+        <v>4.752</v>
       </c>
       <c r="C244" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="245">
@@ -3123,10 +3123,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>19.936</v>
+        <v>13.176</v>
       </c>
       <c r="C245" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="246">
@@ -3134,10 +3134,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>19.872</v>
+        <v>4.824</v>
       </c>
       <c r="C246" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="247">
@@ -3145,10 +3145,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>19.936</v>
+        <v>19.328</v>
       </c>
       <c r="C247" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="248">
@@ -3156,10 +3156,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>9.904</v>
+        <v>19.92</v>
       </c>
       <c r="C248" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="249">
@@ -3167,10 +3167,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>9.976000000000001</v>
+        <v>39.904</v>
       </c>
       <c r="C249" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="250">
@@ -3178,10 +3178,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>314.968</v>
+        <v>19.832</v>
       </c>
       <c r="C250" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="251">
@@ -3189,7 +3189,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4.856</v>
+        <v>18.784</v>
       </c>
       <c r="C251" t="n">
         <v>500001</v>
@@ -3200,7 +3200,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>11.584</v>
+        <v>18.144</v>
       </c>
       <c r="C252" t="n">
         <v>500001</v>
@@ -3211,7 +3211,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C253" t="n">
         <v>500001</v>
@@ -3222,7 +3222,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>13.432</v>
+        <v>19.408</v>
       </c>
       <c r="C254" t="n">
         <v>500001</v>
@@ -3233,7 +3233,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C255" t="n">
         <v>500001</v>
@@ -3244,10 +3244,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>14.328</v>
+        <v>19.728</v>
       </c>
       <c r="C256" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="257">
@@ -3255,10 +3255,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C257" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="258">
@@ -3266,10 +3266,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>19.744</v>
+        <v>19.384</v>
       </c>
       <c r="C258" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="259">
@@ -3277,10 +3277,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C259" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="260">
@@ -3288,10 +3288,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C260" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="261">
@@ -3299,10 +3299,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C261" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="262">
@@ -3310,10 +3310,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>19.552</v>
+        <v>18.96</v>
       </c>
       <c r="C262" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="263">
@@ -3321,10 +3321,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>19.36</v>
+        <v>3.848</v>
       </c>
       <c r="C263" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="264">
@@ -3332,10 +3332,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C264" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="265">
@@ -3343,10 +3343,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>19.784</v>
+        <v>18.872</v>
       </c>
       <c r="C265" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="266">
@@ -3354,10 +3354,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C266" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="267">
@@ -3365,7 +3365,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C267" t="n">
         <v>531251</v>
@@ -3376,7 +3376,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C268" t="n">
         <v>531251</v>
@@ -3387,7 +3387,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C269" t="n">
         <v>531251</v>
@@ -3398,10 +3398,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C270" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="271">
@@ -3409,10 +3409,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C271" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="272">
@@ -3420,10 +3420,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C272" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="273">
@@ -3431,10 +3431,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>19.616</v>
+        <v>14.096</v>
       </c>
       <c r="C273" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="274">
@@ -3442,10 +3442,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C274" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="275">
@@ -3453,10 +3453,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C275" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="276">
@@ -3464,10 +3464,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C276" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="277">
@@ -3475,10 +3475,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C277" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="278">
@@ -3486,10 +3486,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C278" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="279">
@@ -3497,10 +3497,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C279" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="280">
@@ -3508,10 +3508,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C280" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="281">
@@ -3519,7 +3519,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>19.936</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="C281" t="n">
         <v>562501</v>
@@ -3530,7 +3530,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>14.912</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C282" t="n">
         <v>562501</v>
@@ -3541,7 +3541,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4.976</v>
+        <v>314.904</v>
       </c>
       <c r="C283" t="n">
         <v>562501</v>
@@ -3552,10 +3552,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>14.68</v>
+        <v>4.568</v>
       </c>
       <c r="C284" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="285">
@@ -3563,10 +3563,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4.968</v>
+        <v>5.808</v>
       </c>
       <c r="C285" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="286">
@@ -3574,10 +3574,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4.776</v>
+        <v>4.656</v>
       </c>
       <c r="C286" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="287">
@@ -3585,10 +3585,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>14.976</v>
+        <v>10.688</v>
       </c>
       <c r="C287" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="288">
@@ -3596,10 +3596,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>19.84</v>
+        <v>4.752</v>
       </c>
       <c r="C288" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="289">
@@ -3607,10 +3607,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>19.936</v>
+        <v>13.176</v>
       </c>
       <c r="C289" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="290">
@@ -3618,10 +3618,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>19.872</v>
+        <v>4.824</v>
       </c>
       <c r="C290" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="291">
@@ -3629,10 +3629,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>19.936</v>
+        <v>19.328</v>
       </c>
       <c r="C291" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="292">
@@ -3640,10 +3640,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>9.904</v>
+        <v>19.92</v>
       </c>
       <c r="C292" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="293">
@@ -3651,10 +3651,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>9.976000000000001</v>
+        <v>39.904</v>
       </c>
       <c r="C293" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="294">
@@ -3662,10 +3662,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>314.968</v>
+        <v>19.832</v>
       </c>
       <c r="C294" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="295">
@@ -3673,7 +3673,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>4.856</v>
+        <v>18.784</v>
       </c>
       <c r="C295" t="n">
         <v>625001</v>
@@ -3684,7 +3684,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>11.584</v>
+        <v>18.144</v>
       </c>
       <c r="C296" t="n">
         <v>625001</v>
@@ -3695,7 +3695,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C297" t="n">
         <v>625001</v>
@@ -3706,7 +3706,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>13.432</v>
+        <v>19.408</v>
       </c>
       <c r="C298" t="n">
         <v>625001</v>
@@ -3717,7 +3717,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C299" t="n">
         <v>625001</v>
@@ -3728,10 +3728,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>14.328</v>
+        <v>19.728</v>
       </c>
       <c r="C300" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="301">
@@ -3739,10 +3739,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C301" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="302">
@@ -3750,10 +3750,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>19.744</v>
+        <v>19.384</v>
       </c>
       <c r="C302" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="303">
@@ -3761,10 +3761,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C303" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="304">
@@ -3772,10 +3772,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C304" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="305">
@@ -3783,10 +3783,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C305" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="306">
@@ -3794,10 +3794,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>19.552</v>
+        <v>18.96</v>
       </c>
       <c r="C306" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="307">
@@ -3805,10 +3805,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>19.36</v>
+        <v>3.848</v>
       </c>
       <c r="C307" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="308">
@@ -3816,10 +3816,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C308" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="309">
@@ -3827,10 +3827,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>19.784</v>
+        <v>18.872</v>
       </c>
       <c r="C309" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="310">
@@ -3838,10 +3838,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C310" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="311">
@@ -3849,7 +3849,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C311" t="n">
         <v>656251</v>
@@ -3860,7 +3860,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C312" t="n">
         <v>656251</v>
@@ -3871,7 +3871,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C313" t="n">
         <v>656251</v>
@@ -3882,10 +3882,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C314" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="315">
@@ -3893,10 +3893,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C315" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="316">
@@ -3904,10 +3904,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C316" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="317">
@@ -3915,10 +3915,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>19.616</v>
+        <v>14.096</v>
       </c>
       <c r="C317" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="318">
@@ -3926,10 +3926,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C318" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="319">
@@ -3937,10 +3937,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C319" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="320">
@@ -3948,10 +3948,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C320" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="321">
@@ -3959,10 +3959,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C321" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="322">
@@ -3970,10 +3970,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C322" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="323">
@@ -3981,10 +3981,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C323" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="324">
@@ -3992,10 +3992,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C324" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="325">
@@ -4003,7 +4003,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>19.936</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="C325" t="n">
         <v>687501</v>
@@ -4014,7 +4014,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>14.912</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C326" t="n">
         <v>687501</v>
@@ -4025,7 +4025,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>4.976</v>
+        <v>314.904</v>
       </c>
       <c r="C327" t="n">
         <v>687501</v>
@@ -4036,10 +4036,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>14.68</v>
+        <v>4.568</v>
       </c>
       <c r="C328" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="329">
@@ -4047,10 +4047,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>4.968</v>
+        <v>5.808</v>
       </c>
       <c r="C329" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="330">
@@ -4058,10 +4058,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>4.776</v>
+        <v>4.656</v>
       </c>
       <c r="C330" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="331">
@@ -4069,10 +4069,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>14.976</v>
+        <v>10.688</v>
       </c>
       <c r="C331" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="332">
@@ -4080,10 +4080,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>19.84</v>
+        <v>4.752</v>
       </c>
       <c r="C332" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="333">
@@ -4091,10 +4091,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>19.936</v>
+        <v>13.176</v>
       </c>
       <c r="C333" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="334">
@@ -4102,10 +4102,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>19.872</v>
+        <v>4.824</v>
       </c>
       <c r="C334" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="335">
@@ -4113,10 +4113,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>19.936</v>
+        <v>19.328</v>
       </c>
       <c r="C335" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="336">
@@ -4124,10 +4124,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>9.904</v>
+        <v>19.92</v>
       </c>
       <c r="C336" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="337">
@@ -4135,10 +4135,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>9.976000000000001</v>
+        <v>39.904</v>
       </c>
       <c r="C337" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="338">
@@ -4146,10 +4146,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>314.968</v>
+        <v>19.832</v>
       </c>
       <c r="C338" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="339">
@@ -4157,7 +4157,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>4.856</v>
+        <v>18.784</v>
       </c>
       <c r="C339" t="n">
         <v>750001</v>
@@ -4168,7 +4168,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>11.584</v>
+        <v>18.144</v>
       </c>
       <c r="C340" t="n">
         <v>750001</v>
@@ -4179,7 +4179,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C341" t="n">
         <v>750001</v>
@@ -4190,7 +4190,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>13.432</v>
+        <v>19.408</v>
       </c>
       <c r="C342" t="n">
         <v>750001</v>
@@ -4201,7 +4201,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C343" t="n">
         <v>750001</v>
@@ -4212,10 +4212,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14.328</v>
+        <v>19.728</v>
       </c>
       <c r="C344" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="345">
@@ -4223,10 +4223,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C345" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="346">
@@ -4234,10 +4234,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>19.744</v>
+        <v>19.384</v>
       </c>
       <c r="C346" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="347">
@@ -4245,10 +4245,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C347" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="348">
@@ -4256,10 +4256,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C348" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="349">
@@ -4267,10 +4267,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C349" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="350">
@@ -4278,10 +4278,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>19.552</v>
+        <v>18.96</v>
       </c>
       <c r="C350" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="351">
@@ -4289,10 +4289,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>19.36</v>
+        <v>3.848</v>
       </c>
       <c r="C351" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="352">
@@ -4300,10 +4300,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C352" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="353">
@@ -4311,10 +4311,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>19.784</v>
+        <v>18.872</v>
       </c>
       <c r="C353" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="354">
@@ -4322,10 +4322,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C354" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="355">
@@ -4333,7 +4333,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C355" t="n">
         <v>781251</v>
@@ -4344,7 +4344,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C356" t="n">
         <v>781251</v>
@@ -4355,7 +4355,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C357" t="n">
         <v>781251</v>
@@ -4366,10 +4366,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C358" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="359">
@@ -4377,10 +4377,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C359" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="360">
@@ -4388,10 +4388,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C360" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="361">
@@ -4399,10 +4399,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>19.616</v>
+        <v>14.096</v>
       </c>
       <c r="C361" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="362">
@@ -4410,10 +4410,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C362" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="363">
@@ -4421,10 +4421,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C363" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="364">
@@ -4432,10 +4432,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C364" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="365">
@@ -4443,10 +4443,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C365" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="366">
@@ -4454,10 +4454,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C366" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="367">
@@ -4465,10 +4465,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C367" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="368">
@@ -4476,10 +4476,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C368" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="369">
@@ -4487,7 +4487,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>19.936</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="C369" t="n">
         <v>812501</v>
@@ -4498,7 +4498,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>14.912</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C370" t="n">
         <v>812501</v>
@@ -4509,7 +4509,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>4.976</v>
+        <v>314.904</v>
       </c>
       <c r="C371" t="n">
         <v>812501</v>
@@ -4520,10 +4520,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>14.68</v>
+        <v>4.568</v>
       </c>
       <c r="C372" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="373">
@@ -4531,10 +4531,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>4.968</v>
+        <v>5.808</v>
       </c>
       <c r="C373" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="374">
@@ -4542,10 +4542,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>4.776</v>
+        <v>4.656</v>
       </c>
       <c r="C374" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="375">
@@ -4553,10 +4553,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>14.976</v>
+        <v>10.688</v>
       </c>
       <c r="C375" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="376">
@@ -4564,10 +4564,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>19.84</v>
+        <v>4.752</v>
       </c>
       <c r="C376" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="377">
@@ -4575,10 +4575,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>19.936</v>
+        <v>13.176</v>
       </c>
       <c r="C377" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="378">
@@ -4586,10 +4586,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>19.872</v>
+        <v>4.824</v>
       </c>
       <c r="C378" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="379">
@@ -4597,10 +4597,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>19.936</v>
+        <v>19.328</v>
       </c>
       <c r="C379" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="380">
@@ -4608,10 +4608,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>9.904</v>
+        <v>19.92</v>
       </c>
       <c r="C380" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="381">
@@ -4619,10 +4619,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>9.976000000000001</v>
+        <v>39.904</v>
       </c>
       <c r="C381" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="382">
@@ -4630,10 +4630,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>314.968</v>
+        <v>19.832</v>
       </c>
       <c r="C382" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="383">
@@ -4641,7 +4641,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>4.856</v>
+        <v>18.784</v>
       </c>
       <c r="C383" t="n">
         <v>875001</v>
@@ -4652,7 +4652,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>11.584</v>
+        <v>18.144</v>
       </c>
       <c r="C384" t="n">
         <v>875001</v>
@@ -4663,7 +4663,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C385" t="n">
         <v>875001</v>
@@ -4674,7 +4674,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>13.432</v>
+        <v>19.408</v>
       </c>
       <c r="C386" t="n">
         <v>875001</v>
@@ -4685,7 +4685,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C387" t="n">
         <v>875001</v>
@@ -4696,10 +4696,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>14.328</v>
+        <v>19.728</v>
       </c>
       <c r="C388" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="389">
@@ -4707,10 +4707,10 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C389" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="390">
@@ -4718,10 +4718,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>19.744</v>
+        <v>19.384</v>
       </c>
       <c r="C390" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="391">
@@ -4729,10 +4729,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C391" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="392">
@@ -4740,10 +4740,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C392" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="393">
@@ -4751,10 +4751,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C393" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="394">
@@ -4762,10 +4762,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>19.552</v>
+        <v>18.96</v>
       </c>
       <c r="C394" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="395">
@@ -4773,10 +4773,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>19.36</v>
+        <v>3.848</v>
       </c>
       <c r="C395" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="396">
@@ -4784,10 +4784,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C396" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="397">
@@ -4795,10 +4795,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>19.784</v>
+        <v>18.872</v>
       </c>
       <c r="C397" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="398">
@@ -4806,10 +4806,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C398" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="399">
@@ -4817,7 +4817,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C399" t="n">
         <v>906251</v>
@@ -4828,7 +4828,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C400" t="n">
         <v>906251</v>
@@ -4839,7 +4839,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C401" t="n">
         <v>906251</v>
@@ -4850,10 +4850,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C402" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="403">
@@ -4861,10 +4861,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C403" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="404">
@@ -4872,10 +4872,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C404" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="405">
@@ -4883,10 +4883,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>19.616</v>
+        <v>14.096</v>
       </c>
       <c r="C405" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="406">
@@ -4894,10 +4894,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C406" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="407">
@@ -4905,10 +4905,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C407" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="408">
@@ -4916,10 +4916,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C408" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="409">
@@ -4927,10 +4927,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C409" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="410">
@@ -4938,10 +4938,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C410" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="411">
@@ -4949,10 +4949,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C411" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="412">
@@ -4960,10 +4960,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C412" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="413">
@@ -4971,7 +4971,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>19.936</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="C413" t="n">
         <v>937501</v>
@@ -4982,7 +4982,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>14.912</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C414" t="n">
         <v>937501</v>
@@ -4993,7 +4993,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>4.976</v>
+        <v>314.904</v>
       </c>
       <c r="C415" t="n">
         <v>937501</v>
@@ -5004,10 +5004,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>14.68</v>
+        <v>4.568</v>
       </c>
       <c r="C416" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="417">
@@ -5015,10 +5015,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>4.968</v>
+        <v>5.808</v>
       </c>
       <c r="C417" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="418">
@@ -5026,10 +5026,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>4.776</v>
+        <v>4.656</v>
       </c>
       <c r="C418" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="419">
@@ -5037,10 +5037,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>14.976</v>
+        <v>10.688</v>
       </c>
       <c r="C419" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="420">
@@ -5048,10 +5048,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>19.84</v>
+        <v>4.752</v>
       </c>
       <c r="C420" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="421">
@@ -5059,10 +5059,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>19.936</v>
+        <v>13.176</v>
       </c>
       <c r="C421" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="422">
@@ -5070,10 +5070,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>19.872</v>
+        <v>4.824</v>
       </c>
       <c r="C422" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="423">
@@ -5081,10 +5081,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>19.936</v>
+        <v>19.328</v>
       </c>
       <c r="C423" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="424">
@@ -5092,10 +5092,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>9.904</v>
+        <v>19.92</v>
       </c>
       <c r="C424" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="425">
@@ -5103,10 +5103,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>9.976000000000001</v>
+        <v>39.904</v>
       </c>
       <c r="C425" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="426">
@@ -5114,10 +5114,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>314.968</v>
+        <v>19.832</v>
       </c>
       <c r="C426" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="427">
@@ -5125,7 +5125,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>4.856</v>
+        <v>18.784</v>
       </c>
       <c r="C427" t="n">
         <v>1000001</v>
@@ -5136,7 +5136,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>11.584</v>
+        <v>18.144</v>
       </c>
       <c r="C428" t="n">
         <v>1000001</v>
@@ -5147,7 +5147,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C429" t="n">
         <v>1000001</v>
@@ -5158,7 +5158,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>13.432</v>
+        <v>19.408</v>
       </c>
       <c r="C430" t="n">
         <v>1000001</v>
@@ -5169,7 +5169,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C431" t="n">
         <v>1000001</v>
@@ -5180,10 +5180,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>14.328</v>
+        <v>19.728</v>
       </c>
       <c r="C432" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="433">
@@ -5191,10 +5191,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C433" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="434">
@@ -5202,10 +5202,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>19.744</v>
+        <v>19.384</v>
       </c>
       <c r="C434" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="435">
@@ -5213,10 +5213,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C435" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="436">
@@ -5224,10 +5224,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C436" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="437">
@@ -5235,10 +5235,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C437" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="438">
@@ -5246,10 +5246,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>19.552</v>
+        <v>18.96</v>
       </c>
       <c r="C438" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="439">
@@ -5257,10 +5257,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>19.36</v>
+        <v>3.848</v>
       </c>
       <c r="C439" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="440">
@@ -5268,10 +5268,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C440" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="441">
@@ -5279,10 +5279,10 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>19.784</v>
+        <v>18.872</v>
       </c>
       <c r="C441" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="442">
@@ -5290,10 +5290,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C442" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="443">
@@ -5301,7 +5301,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C443" t="n">
         <v>1031251</v>
@@ -5312,7 +5312,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C444" t="n">
         <v>1031251</v>
@@ -5323,7 +5323,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C445" t="n">
         <v>1031251</v>
@@ -5334,10 +5334,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C446" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="447">
@@ -5345,10 +5345,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C447" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="448">
@@ -5356,10 +5356,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C448" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="449">
@@ -5367,10 +5367,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>19.616</v>
+        <v>14.096</v>
       </c>
       <c r="C449" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="450">
@@ -5378,10 +5378,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C450" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="451">
@@ -5389,10 +5389,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C451" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="452">
@@ -5400,10 +5400,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C452" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="453">
@@ -5411,10 +5411,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C453" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="454">
@@ -5422,10 +5422,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C454" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="455">
@@ -5433,10 +5433,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C455" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="456">
@@ -5444,10 +5444,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C456" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="457">
@@ -5455,7 +5455,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>19.936</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="C457" t="n">
         <v>1062501</v>
@@ -5466,7 +5466,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>14.912</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C458" t="n">
         <v>1062501</v>
@@ -5477,7 +5477,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>4.976</v>
+        <v>314.904</v>
       </c>
       <c r="C459" t="n">
         <v>1062501</v>
@@ -5488,10 +5488,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>14.68</v>
+        <v>4.568</v>
       </c>
       <c r="C460" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="461">
@@ -5499,10 +5499,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>4.968</v>
+        <v>5.808</v>
       </c>
       <c r="C461" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="462">
@@ -5510,10 +5510,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>4.776</v>
+        <v>4.656</v>
       </c>
       <c r="C462" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="463">
@@ -5521,10 +5521,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>14.976</v>
+        <v>10.688</v>
       </c>
       <c r="C463" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="464">
@@ -5532,10 +5532,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>19.84</v>
+        <v>4.752</v>
       </c>
       <c r="C464" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="465">
@@ -5543,10 +5543,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>19.936</v>
+        <v>13.176</v>
       </c>
       <c r="C465" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="466">
@@ -5554,10 +5554,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>19.872</v>
+        <v>4.824</v>
       </c>
       <c r="C466" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="467">
@@ -5565,10 +5565,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>19.936</v>
+        <v>19.328</v>
       </c>
       <c r="C467" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="468">
@@ -5576,10 +5576,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>9.904</v>
+        <v>19.92</v>
       </c>
       <c r="C468" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="469">
@@ -5587,10 +5587,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>9.976000000000001</v>
+        <v>39.904</v>
       </c>
       <c r="C469" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="470">
@@ -5598,10 +5598,10 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>314.968</v>
+        <v>19.832</v>
       </c>
       <c r="C470" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="471">
@@ -5609,7 +5609,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>4.856</v>
+        <v>18.784</v>
       </c>
       <c r="C471" t="n">
         <v>1125001</v>
@@ -5620,7 +5620,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>11.584</v>
+        <v>18.144</v>
       </c>
       <c r="C472" t="n">
         <v>1125001</v>
@@ -5631,7 +5631,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>4.88</v>
+        <v>18.216</v>
       </c>
       <c r="C473" t="n">
         <v>1125001</v>
@@ -5642,7 +5642,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>13.432</v>
+        <v>19.408</v>
       </c>
       <c r="C474" t="n">
         <v>1125001</v>
@@ -5653,7 +5653,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>4.904</v>
+        <v>19.392</v>
       </c>
       <c r="C475" t="n">
         <v>1125001</v>
@@ -5664,10 +5664,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>14.328</v>
+        <v>19.728</v>
       </c>
       <c r="C476" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="477">
@@ -5675,10 +5675,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>4.936</v>
+        <v>19.28</v>
       </c>
       <c r="C477" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="478">
@@ -5686,10 +5686,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>19.744</v>
+        <v>19.384</v>
       </c>
       <c r="C478" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="479">
@@ -5697,10 +5697,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>19.968</v>
+        <v>4.304</v>
       </c>
       <c r="C479" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="480">
@@ -5708,10 +5708,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>39.968</v>
+        <v>14.928</v>
       </c>
       <c r="C480" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="481">
@@ -5719,10 +5719,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>19.936</v>
+        <v>19.288</v>
       </c>
       <c r="C481" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="482">
@@ -5730,10 +5730,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>19.552</v>
+        <v>18.96</v>
       </c>
       <c r="C482" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="483">
@@ -5741,10 +5741,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>19.36</v>
+        <v>3.848</v>
       </c>
       <c r="C483" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="484">
@@ -5752,10 +5752,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>19.328</v>
+        <v>14.856</v>
       </c>
       <c r="C484" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="485">
@@ -5763,10 +5763,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>19.784</v>
+        <v>18.872</v>
       </c>
       <c r="C485" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="486">
@@ -5774,10 +5774,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>19.776</v>
+        <v>19.568</v>
       </c>
       <c r="C486" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="487">
@@ -5785,7 +5785,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>19.904</v>
+        <v>39.736</v>
       </c>
       <c r="C487" t="n">
         <v>1156251</v>
@@ -5796,7 +5796,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>19.744</v>
+        <v>9.904</v>
       </c>
       <c r="C488" t="n">
         <v>1156251</v>
@@ -5807,7 +5807,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>19.776</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C489" t="n">
         <v>1156251</v>
@@ -5818,10 +5818,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>4.712</v>
+        <v>19.824</v>
       </c>
       <c r="C490" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="491">
@@ -5829,10 +5829,10 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>14.976</v>
+        <v>14.768</v>
       </c>
       <c r="C491" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="492">
@@ -5840,10 +5840,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>19.744</v>
+        <v>4.928</v>
       </c>
       <c r="C492" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="493">
@@ -5851,10 +5851,10 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>19.616</v>
+        <v>14.096</v>
       </c>
       <c r="C493" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="494">
@@ -5862,10 +5862,10 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>4.584</v>
+        <v>4.904</v>
       </c>
       <c r="C494" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="495">
@@ -5873,10 +5873,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>14.952</v>
+        <v>4.4</v>
       </c>
       <c r="C495" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="496">
@@ -5884,10 +5884,10 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>19.584</v>
+        <v>14.928</v>
       </c>
       <c r="C496" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="497">
@@ -5895,10 +5895,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>19.84</v>
+        <v>19.552</v>
       </c>
       <c r="C497" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="498">
@@ -5906,10 +5906,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>39.904</v>
+        <v>19.824</v>
       </c>
       <c r="C498" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="499">
@@ -5917,10 +5917,10 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>9.968</v>
+        <v>19.656</v>
       </c>
       <c r="C499" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="500">
@@ -5928,10 +5928,10 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>9.976000000000001</v>
+        <v>19.832</v>
       </c>
       <c r="C500" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="501">
@@ -5939,7 +5939,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>19.936</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C501" t="n">
         <v>1187501</v>
@@ -5950,130 +5950,9 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>14.912</v>
+        <v>321.928</v>
       </c>
       <c r="C502" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>4.976</v>
-      </c>
-      <c r="C503" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="C504" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>4.968</v>
-      </c>
-      <c r="C505" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>4.776</v>
-      </c>
-      <c r="C506" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>14.976</v>
-      </c>
-      <c r="C507" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="C508" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>19.936</v>
-      </c>
-      <c r="C509" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>19.872</v>
-      </c>
-      <c r="C510" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>19.936</v>
-      </c>
-      <c r="C511" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>9.904</v>
-      </c>
-      <c r="C512" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>321.976</v>
-      </c>
-      <c r="C513" t="n">
         <v>1187501</v>
       </c>
     </row>
